--- a/highest2.xlsx
+++ b/highest2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,32 +480,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>4.666666666666667</v>
+        <v>4.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ulfa Beauty MUA</t>
+          <t>Rias Manten Mariyam</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9766131518516362</v>
+        <v>0.8953652146402536</v>
       </c>
       <c r="F2" t="n">
-        <v>4.557528041974303</v>
+        <v>4.118679987345167</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
+          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - natural (putih) - light - cool', 'Make Over Ultra Cover Liquid Foundation - velvet nude (medium kuning) - medium - warm', 'LT Pro smooth corrector cream foundation - plum rose (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>25.68</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03948258070840952</v>
+        <v>0.02584519696500744</v>
       </c>
     </row>
     <row r="3">
@@ -513,32 +513,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Winda Wijaya MUA &amp; Beauty Studio</t>
+          <t>Eka Make Over</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8915121262612065</v>
+        <v>0.8055594153004654</v>
       </c>
       <c r="F3" t="n">
-        <v>4.457560631306032</v>
+        <v>3.705573310382141</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - rachel 2 (kuning pengantin) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>22.21</v>
+        <v>54.11999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0348521548026168</v>
+        <v>0.02583278375312414</v>
       </c>
     </row>
     <row r="4">
@@ -546,32 +546,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wedding Gallery Make Over</t>
+          <t>Salon Fatah</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7979890064492787</v>
+        <v>0.6983303684938008</v>
       </c>
       <c r="F4" t="n">
-        <v>3.989945032246394</v>
+        <v>3.192367398828804</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'Make Over Ultra Cover Liquid Foundation - velvet nude (medium kuning) - medium - warm', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral']</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>18.79</v>
+        <v>33.67</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04441731432104146</v>
+        <v>0.05906012272991701</v>
       </c>
     </row>
     <row r="5">
@@ -579,32 +579,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rias Pengantin Criepno Lestari</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Laura Make Up &amp; Bridal</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7727082900566271</v>
-      </c>
       <c r="F5" t="n">
-        <v>3.863541450283136</v>
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>16.25</v>
+        <v>28.71</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0302675165827333</v>
+        <v>0.03338598470757</v>
       </c>
     </row>
     <row r="6">
@@ -612,32 +612,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Liyan Make Up Jember</t>
+          <t>Khaliza Make Up</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7727063073848293</v>
+        <v>0.478110227476493</v>
       </c>
       <c r="F6" t="n">
-        <v>3.090825229539317</v>
+        <v>2.390551137382465</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1047.88</v>
+        <v>23.39</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05004351693030862</v>
+        <v>0.03699231348109996</v>
       </c>
     </row>
     <row r="7">
@@ -648,29 +648,29 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sanggar Rias Cantik Tina</t>
+          <t>Laura Make Up &amp; Bridal</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6084250609433882</v>
+        <v>0.5138985382511635</v>
       </c>
       <c r="F7" t="n">
-        <v>3.042125304716941</v>
+        <v>2.055594153004654</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral']</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>16.07</v>
+        <v>5.34</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03133084783256707</v>
+        <v>0.05288319276938674</v>
       </c>
     </row>
     <row r="8">
@@ -681,29 +681,29 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Griya Putri Make Up</t>
+          <t>Yulia Salon &amp; Bridal</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.697293100175441</v>
+        <v>0.4883651942104346</v>
       </c>
       <c r="F8" t="n">
-        <v>3.021603434093577</v>
+        <v>1.953460776841738</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - rachel 2 (kuning pengantin) - medium - warm', 'Wardah Everyday Luminous Liquid Foundation - natural - medium - warm', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm', 'Maybelline Fit Me Matte + Poreless Liquid Foundation - natural beige - medium - warm', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.03</v>
+        <v>25.48</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03417107007060036</v>
+        <v>0.03401173789756967</v>
       </c>
     </row>
     <row r="9">
@@ -711,32 +711,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aulia Rias Pengantin</t>
+          <t>Novi Make Up</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5578217037263486</v>
+        <v>0.478110227476493</v>
       </c>
       <c r="F9" t="n">
-        <v>2.789108518631743</v>
+        <v>1.912440909905972</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>23.28</v>
+        <v>28.29</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04438050593957849</v>
+        <v>0.03421395341548494</v>
       </c>
     </row>
     <row r="10">
@@ -744,32 +744,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.857142857142857</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bonita MUA Jember</t>
+          <t>Ayunia Bridal dan Salon</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.672768000876567</v>
+        <v>0.5335682210458534</v>
       </c>
       <c r="F10" t="n">
-        <v>2.59496228909533</v>
+        <v>1.867488773660487</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'Wardah Everyday Luminous Liquid Foundation - natural - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'Wardah Lightening Liquid Foundation 25ml - neutral beige - light - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>22.04</v>
+        <v>6.22</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04905181628695849</v>
+        <v>0.03274348527646706</v>
       </c>
     </row>
     <row r="11">
@@ -777,32 +777,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ayuk Rias Pengantin</t>
+          <t>Dinda Wijaya Make Up</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5087072688771195</v>
+        <v>0.5138985382511635</v>
       </c>
       <c r="F11" t="n">
-        <v>2.543536344385597</v>
+        <v>1.541695614753491</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Wardah Everyday Luminous Liquid Foundation - natural white - light - warm']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral']</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5.25</v>
+        <v>6.7</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02439284985690182</v>
+        <v>0.09670450973564193</v>
       </c>
     </row>
     <row r="12">
@@ -813,29 +813,29 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dinda Wijaya Make Up</t>
+          <t>Ifa Salon</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5087053790643526</v>
+        <v>0.4990969183325998</v>
       </c>
       <c r="F12" t="n">
-        <v>2.543526895321763</v>
+        <v>1.497290754997799</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
+          <t>['la tulipe cover foundation - beige (coklat/gelap) - dark - cool', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9.83</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04046723738257907</v>
+        <v>0.03613034377468566</v>
       </c>
     </row>
     <row r="13">
@@ -843,32 +843,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hiekmaa MUA</t>
+          <t>Rias Pengantin Azizah</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6084250619304924</v>
+        <v>0.4988155339261525</v>
       </c>
       <c r="F13" t="n">
-        <v>2.43370024772197</v>
+        <v>1.496446601778457</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - rachel 2 (kuning pengantin) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>17.17</v>
+        <v>10.18</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03477461018526062</v>
+        <v>0.039355486670032</v>
       </c>
     </row>
     <row r="14">
@@ -883,25 +883,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Salon Vinell</t>
+          <t>Rias Pengantin Ana</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7979921913308996</v>
+        <v>0.4985438885302211</v>
       </c>
       <c r="F14" t="n">
-        <v>2.393976573992699</v>
+        <v>1.495631665590663</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'Make Over Ultra Cover Liquid Foundation - ochre (medium fair) - medium - warm']</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>16.6</v>
+        <v>10.28</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04486694190287172</v>
+        <v>0.03114407712743283</v>
       </c>
     </row>
     <row r="15">
@@ -909,32 +909,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yulia Salon &amp; Bridal</t>
+          <t>Salon Vinell</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5578219501827023</v>
+        <v>0.4985140165564022</v>
       </c>
       <c r="F15" t="n">
-        <v>2.231287800730809</v>
+        <v>1.495542049669207</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Ultima II Wonderwear Cream Make Up - linen - light - cool', 'LT Pro Smooth Corrector Cream Foundation - warm beige (sawo matang gelap) - dark - warm']</t>
+          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - beige (coklat/gelap) - dark - cool', 'LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm']</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>22.89</v>
+        <v>4.45</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03304056960736418</v>
+        <v>0.02042999038043314</v>
       </c>
     </row>
     <row r="16">
@@ -945,18 +945,18 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Intan Rias Pengantin</t>
+          <t>Salon Indah Sari</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5578218682050159</v>
+        <v>0.4984702824010048</v>
       </c>
       <c r="F16" t="n">
-        <v>2.231287472820064</v>
+        <v>1.495410847203014</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>16.61</v>
+        <v>6.34</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03946719429381224</v>
+        <v>0.0265423443773653</v>
       </c>
     </row>
     <row r="17">
@@ -978,29 +978,29 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>3.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Larasnada Make Up</t>
+          <t>Sanggar Rias dan Salon Esthie</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5967071672791038</v>
+        <v>0.4984063434099218</v>
       </c>
       <c r="F17" t="n">
-        <v>2.187926280023381</v>
+        <v>1.495219030229765</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
+          <t>['la tulipe cover foundation - beige (coklat/gelap) - dark - cool', 'LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>23.55</v>
+        <v>6.55</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05381873704805551</v>
+        <v>0.02415332936603069</v>
       </c>
     </row>
     <row r="18">
@@ -1008,32 +1008,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sanggar Rias Pengantin Dewi Balqis</t>
+          <t>Salon Sylvia</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5585667480000605</v>
+        <v>0.4982418166044381</v>
       </c>
       <c r="F18" t="n">
-        <v>1.954983618000212</v>
+        <v>1.494725449813314</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - rachel 2 (kuning pengantin) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
+          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral']</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>19.01</v>
+        <v>26.66</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03416589708269088</v>
+        <v>0.01806786217778589</v>
       </c>
     </row>
     <row r="19">
@@ -1044,293 +1044,29 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Iqlim Rias Pengantin</t>
+          <t>Salon Sriwijaya</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5087079764301599</v>
+        <v>0.5529894303663632</v>
       </c>
       <c r="F19" t="n">
-        <v>1.52612392929048</v>
+        <v>1.105978860732726</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral']</t>
+          <t>['Make Over Ultra Cover Liquid Foundation - crème rose (fair white) - light - cool', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>12.99</v>
+        <v>68.22</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04039361649436296</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Ardie Make Up &amp; Salon</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5087068944475557</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.526120683342667</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['LT Pro smooth corrector cream foundation - plum rose (putih) - light - cool', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.03223874193618564</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Abha Beauty Make Up Artist</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0.2914161159137194</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.457080579568597</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm', 'la tulipe cover foundation - rachel 1 (kuning langsat) - medium - neutral', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm', 'Make Over Ultra Cover Liquid Foundation - ochre (medium fair) - medium - warm']</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.04364614367927927</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>RR Make Up</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0.291416115748753</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.457080578743765</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool']</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.0444085633912246</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Sanggar Rias Nining</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0.2914161139448606</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.457080569724303</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['la tulipe cover foundation - suntan (sawo matang) - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - yellow orange (putih kekuningan) - light - warm']</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.05283871202587272</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Ella Surya Make Up</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2914161155632192</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.165664462252877</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['Maybelline Fit Me Matte + Poreless Liquid Foundation - natural beige - medium - warm', 'la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - beige (coklat/gelap) - dark - cool']</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.03708635053489554</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Griya Citra Ayu</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0.291416115331428</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.165664461325712</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['Make Over Ultra Cover Liquid Foundation - ochre (medium fair) - medium - warm', 'Maybelline Fit Me Matte + Poreless Liquid Foundation - light beige - light - warm']</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.02555245475768531</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Sanggar Rias dan Salon Esthie</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0.2914161161685394</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8742483485056183</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'la tulipe cover foundation - beige (coklat/gelap) - dark - cool', 'LT Pro smooth corrector cream foundation - warm beige (sawo matang gelap) - dark - warm']</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.03831592017399691</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Rias Pengantin Azizah</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0.2914161147165117</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.874248344149535</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['la tulipe cover foundation - natural (putih) - light - cool', 'LT Pro smooth corrector cream foundation - natural (kuning langsat) - medium - neutral', 'la tulipe cover foundation - suntan (sawo matang) - medium - warm']</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.03997536176686212</v>
+        <v>0.02034182277936258</v>
       </c>
     </row>
   </sheetData>
